--- a/Data Jumlah Tenaga Kerja.xlsx
+++ b/Data Jumlah Tenaga Kerja.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\SEMINAR PROPOSAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\Analisis Input Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EABAA305-B541-4A51-94F1-200FC49884DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853D9132-2C75-453F-BDC0-2ED5451A1FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5FD79BCC-0039-4861-A240-17F52BBADEC1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5FD79BCC-0039-4861-A240-17F52BBADEC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tenaga Kerja" sheetId="1" r:id="rId1"/>
@@ -502,12 +502,12 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="108" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="108" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>495732</v>
       </c>
